--- a/peaklist.xlsx
+++ b/peaklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxing\Documents\GitHub\Isoscope\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ls5570\Documents\2021\MALDI\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507344EA-2B0D-4F84-85CB-6D58E70F4F7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AB0D55-0931-403D-B290-3A92D857BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30105" yWindow="0" windowWidth="26220" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MALDI selected" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="280">
   <si>
     <t>Name</t>
   </si>
@@ -94,15 +94,9 @@
     <t>C9H14N3O8P</t>
   </si>
   <si>
-    <t>Gamma-Aminobutyric acid</t>
-  </si>
-  <si>
     <t>C4H9NO2</t>
   </si>
   <si>
-    <t>D-Glucose</t>
-  </si>
-  <si>
     <t>C6H12O6</t>
   </si>
   <si>
@@ -130,15 +124,9 @@
     <t>C4H4O4</t>
   </si>
   <si>
-    <t>L-Glutamic acid</t>
-  </si>
-  <si>
     <t>C5H9NO4</t>
   </si>
   <si>
-    <t>L-Malic acid</t>
-  </si>
-  <si>
     <t>C4H6O5</t>
   </si>
   <si>
@@ -172,15 +160,9 @@
     <t>C12H22O11</t>
   </si>
   <si>
-    <t>L-Aspartic acid</t>
-  </si>
-  <si>
     <t>C4H7NO4</t>
   </si>
   <si>
-    <t>Isocitric acid</t>
-  </si>
-  <si>
     <t>C6H8O7</t>
   </si>
   <si>
@@ -244,9 +226,6 @@
     <t>C15H24N2O17P2</t>
   </si>
   <si>
-    <t>Uridine 5'-monophosphate</t>
-  </si>
-  <si>
     <t>C9H13N2O9P</t>
   </si>
   <si>
@@ -268,9 +247,6 @@
     <t>C5H4N4O2</t>
   </si>
   <si>
-    <t>Uridine 5'-diphosphate</t>
-  </si>
-  <si>
     <t>C9H14N2O12P2</t>
   </si>
   <si>
@@ -328,9 +304,6 @@
     <t>C6H12O7</t>
   </si>
   <si>
-    <t>L-Glutamine</t>
-  </si>
-  <si>
     <t>C5H10N2O3</t>
   </si>
   <si>
@@ -340,9 +313,6 @@
     <t>C27H46O4S</t>
   </si>
   <si>
-    <t>Linoleic acid</t>
-  </si>
-  <si>
     <t>C18H32O2</t>
   </si>
   <si>
@@ -352,9 +322,6 @@
     <t>C7H12N2O3</t>
   </si>
   <si>
-    <t>Stearic acid</t>
-  </si>
-  <si>
     <t>C18H36O2</t>
   </si>
   <si>
@@ -391,15 +358,9 @@
     <t>Trehalose</t>
   </si>
   <si>
-    <t>Deoxyribose 5-phosphate</t>
-  </si>
-  <si>
     <t>C5H11O7P</t>
   </si>
   <si>
-    <t>Fructose 1,6-bisphosphate</t>
-  </si>
-  <si>
     <t>C6H14O12P2</t>
   </si>
   <si>
@@ -427,9 +388,6 @@
     <t>C9H14N3O7P</t>
   </si>
   <si>
-    <t>Glucosamine 6-phosphate</t>
-  </si>
-  <si>
     <t>C6H14NO8P</t>
   </si>
   <si>
@@ -445,15 +403,9 @@
     <t>C6H13O10P</t>
   </si>
   <si>
-    <t>D-Erythrose 4-phosphate</t>
-  </si>
-  <si>
     <t>C4H9O7P</t>
   </si>
   <si>
-    <t>ADP</t>
-  </si>
-  <si>
     <t>C10H15N5O10P2</t>
   </si>
   <si>
@@ -463,9 +415,6 @@
     <t>C10H14N5O8P</t>
   </si>
   <si>
-    <t>Glucose 6-phosphate</t>
-  </si>
-  <si>
     <t>C6H13O9P</t>
   </si>
   <si>
@@ -502,9 +451,6 @@
     <t>C6H15O9P</t>
   </si>
   <si>
-    <t>D-Ribose 5-phosphate</t>
-  </si>
-  <si>
     <t>C5H11O8P</t>
   </si>
   <si>
@@ -538,9 +484,6 @@
     <t>C8H9NO2</t>
   </si>
   <si>
-    <t>Arachidic acid</t>
-  </si>
-  <si>
     <t>C20H40O2</t>
   </si>
   <si>
@@ -592,105 +535,36 @@
     <t>5-Keto-D-gluconate</t>
   </si>
   <si>
-    <t>2,6-Dihydroxybenzoic acid</t>
-  </si>
-  <si>
     <t>C7H6O4</t>
   </si>
   <si>
-    <t>linolenic acid</t>
-  </si>
-  <si>
     <t>C18H30O2</t>
   </si>
   <si>
-    <t>DHGL</t>
-  </si>
-  <si>
     <t>C20H34O2</t>
   </si>
   <si>
-    <t>docosatetranoic acid</t>
-  </si>
-  <si>
     <t>C22H36O2</t>
   </si>
   <si>
-    <t>lipid_p3</t>
-  </si>
-  <si>
     <t>C27H46O5</t>
   </si>
   <si>
-    <t>lipid_p4</t>
-  </si>
-  <si>
     <t>C10H11NO</t>
   </si>
   <si>
-    <t>lipid_p5</t>
-  </si>
-  <si>
     <t>C6H8N2O3</t>
   </si>
   <si>
-    <t>lipid_p6</t>
-  </si>
-  <si>
     <t>C10H11NO3</t>
   </si>
   <si>
-    <t>lipid_p7</t>
-  </si>
-  <si>
     <t>C6H11NO3</t>
   </si>
   <si>
-    <t>lipid_p8</t>
-  </si>
-  <si>
     <t>C9H9NO3</t>
   </si>
   <si>
-    <t>lipid_p11</t>
-  </si>
-  <si>
-    <t>lipid_p12</t>
-  </si>
-  <si>
-    <t>lipid_p13</t>
-  </si>
-  <si>
-    <t>lipid_p14</t>
-  </si>
-  <si>
-    <t>lipid_p15</t>
-  </si>
-  <si>
-    <t>lipid_p16</t>
-  </si>
-  <si>
-    <t>lipid_p17</t>
-  </si>
-  <si>
-    <t>lipid_p18</t>
-  </si>
-  <si>
-    <t>blood marker</t>
-  </si>
-  <si>
-    <t>bile acid</t>
-  </si>
-  <si>
-    <t>unknown1</t>
-  </si>
-  <si>
-    <t>unknown2</t>
-  </si>
-  <si>
-    <t>hexoseCl</t>
-  </si>
-  <si>
     <t>C6H12O6HCl</t>
   </si>
   <si>
@@ -706,9 +580,6 @@
     <t>C6H13O8P</t>
   </si>
   <si>
-    <t>Docosahexaenoic acid(DHA)</t>
-  </si>
-  <si>
     <t>C22H32O2</t>
   </si>
   <si>
@@ -724,9 +595,6 @@
     <t>C9H10O4</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>Imidazole propionate</t>
   </si>
   <si>
@@ -742,9 +610,6 @@
     <t>C9H8O4</t>
   </si>
   <si>
-    <t>hexoseP_H2O</t>
-  </si>
-  <si>
     <t>heme</t>
   </si>
   <si>
@@ -754,126 +619,9 @@
     <t>C6H11O8P</t>
   </si>
   <si>
-    <t>lipid_p19</t>
-  </si>
-  <si>
-    <t>lipid_p20</t>
-  </si>
-  <si>
-    <t>lipid_p21</t>
-  </si>
-  <si>
-    <t>lipid_p22</t>
-  </si>
-  <si>
-    <t>lipid_p23</t>
-  </si>
-  <si>
-    <t>lipid_p24</t>
-  </si>
-  <si>
-    <t>lipid_p25</t>
-  </si>
-  <si>
-    <t>lipid_p26</t>
-  </si>
-  <si>
-    <t>lipid_p27</t>
-  </si>
-  <si>
-    <t>lipid_p28</t>
-  </si>
-  <si>
-    <t>lipid_p29</t>
-  </si>
-  <si>
-    <t>lipid_p30</t>
-  </si>
-  <si>
-    <t>lipid_p31</t>
-  </si>
-  <si>
-    <t>lipid_p32</t>
-  </si>
-  <si>
-    <t>lipid_p33</t>
-  </si>
-  <si>
-    <t>lipid_p34</t>
-  </si>
-  <si>
-    <t>lipid_p35</t>
-  </si>
-  <si>
-    <t>lipid_p36</t>
-  </si>
-  <si>
-    <t>lipid_p37</t>
-  </si>
-  <si>
-    <t>lipid_p38</t>
-  </si>
-  <si>
-    <t>unknown_1</t>
-  </si>
-  <si>
-    <t>unknown_2</t>
-  </si>
-  <si>
-    <t>unknown_3</t>
-  </si>
-  <si>
-    <t>unknown_4</t>
-  </si>
-  <si>
-    <t>unknown_5</t>
-  </si>
-  <si>
-    <t>unknown_6</t>
-  </si>
-  <si>
-    <t>unknown_7</t>
-  </si>
-  <si>
-    <t>unknown_8</t>
-  </si>
-  <si>
-    <t>unknown_9</t>
-  </si>
-  <si>
-    <t>unknown_10</t>
-  </si>
-  <si>
-    <t>unknown_11</t>
-  </si>
-  <si>
-    <t>unknown_12</t>
-  </si>
-  <si>
-    <t>unknown_13</t>
-  </si>
-  <si>
-    <t>palmitic acid</t>
-  </si>
-  <si>
-    <t>palmitoleic acid</t>
-  </si>
-  <si>
-    <t>oleic acid</t>
-  </si>
-  <si>
-    <t>eicosanoic acid</t>
-  </si>
-  <si>
-    <t>eicosadienoic acid</t>
-  </si>
-  <si>
     <t>arachidonic acid</t>
   </si>
   <si>
-    <t>eicosapentaenoic acid</t>
-  </si>
-  <si>
     <t>C20H32O2</t>
   </si>
   <si>
@@ -890,13 +638,238 @@
   </si>
   <si>
     <t>C16H32H2</t>
+  </si>
+  <si>
+    <t>UDP-hexuronic acid</t>
+  </si>
+  <si>
+    <t>LysoPI(18:0)</t>
+  </si>
+  <si>
+    <t>Dehydro-LysoPI(18:0)</t>
+  </si>
+  <si>
+    <t>UDP-hexuronic acid+Na-2H</t>
+  </si>
+  <si>
+    <t>UDP-hexuronic acid+K-2H</t>
+  </si>
+  <si>
+    <t>PI(22:6)</t>
+  </si>
+  <si>
+    <t>SM(33:1)</t>
+  </si>
+  <si>
+    <t>PA(37:1)</t>
+  </si>
+  <si>
+    <t>PA(38:4)</t>
+  </si>
+  <si>
+    <t>PE(36:4)</t>
+  </si>
+  <si>
+    <t>PE(36:2)</t>
+  </si>
+  <si>
+    <t>PA(40:6)</t>
+  </si>
+  <si>
+    <t>PE(38:6)</t>
+  </si>
+  <si>
+    <t>PE(38:4)</t>
+  </si>
+  <si>
+    <t>PG(36:3)</t>
+  </si>
+  <si>
+    <t>PS(36:4)</t>
+  </si>
+  <si>
+    <t>PE(40:7)</t>
+  </si>
+  <si>
+    <t>PE(40:6)</t>
+  </si>
+  <si>
+    <t>PS(37:5)</t>
+  </si>
+  <si>
+    <t>PG(38:4)</t>
+  </si>
+  <si>
+    <t>PG(38:3)</t>
+  </si>
+  <si>
+    <t>PS(38:6)</t>
+  </si>
+  <si>
+    <t>PE(42:10)</t>
+  </si>
+  <si>
+    <t>PS(39:8)</t>
+  </si>
+  <si>
+    <t>PS(39:7)</t>
+  </si>
+  <si>
+    <t>PI(34:2)</t>
+  </si>
+  <si>
+    <t>PS(40:6)</t>
+  </si>
+  <si>
+    <t>PG(42:8)</t>
+  </si>
+  <si>
+    <t>PG(42:9)</t>
+  </si>
+  <si>
+    <t>PI(36:4)</t>
+  </si>
+  <si>
+    <t>PI(36:2)</t>
+  </si>
+  <si>
+    <t>PI(37:7)</t>
+  </si>
+  <si>
+    <t>PI(37:4)</t>
+  </si>
+  <si>
+    <t>PI(38:6)</t>
+  </si>
+  <si>
+    <t>PI(38:5)</t>
+  </si>
+  <si>
+    <t>PI(38:4)</t>
+  </si>
+  <si>
+    <t>Aminobutyric acid</t>
+  </si>
+  <si>
+    <t>Aspartic acid</t>
+  </si>
+  <si>
+    <t>Malic acid</t>
+  </si>
+  <si>
+    <t>Glutamine</t>
+  </si>
+  <si>
+    <t>Glutamic acid</t>
+  </si>
+  <si>
+    <t>Dihydroxybenzoic acid</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>hexose(chloride adduct)</t>
+  </si>
+  <si>
+    <t>hexose phosphate (dehydrated)</t>
+  </si>
+  <si>
+    <t>Hexosamine phosphate</t>
+  </si>
+  <si>
+    <t>Hexose phosphate</t>
+  </si>
+  <si>
+    <t>Uridine diphosphate</t>
+  </si>
+  <si>
+    <t>Dihomo-gamma-linolenic acid (C20:3)</t>
+  </si>
+  <si>
+    <t>eicosapentaenoic acid (C20:5)</t>
+  </si>
+  <si>
+    <t>Stearic acid (C18:0)</t>
+  </si>
+  <si>
+    <t>linolenic acid (C18:3)</t>
+  </si>
+  <si>
+    <t>Linoleic acid (C18:2)</t>
+  </si>
+  <si>
+    <t>oleic acid (C18:1)</t>
+  </si>
+  <si>
+    <t>Phenylaminobenzoic acid</t>
+  </si>
+  <si>
+    <t>palmitoleic acid (C16:1)</t>
+  </si>
+  <si>
+    <t>palmitic acid (C16:0)</t>
+  </si>
+  <si>
+    <t>Hexosamine</t>
+  </si>
+  <si>
+    <t>Citrate</t>
+  </si>
+  <si>
+    <t>Docosahexaenoic acid (C22:6)</t>
+  </si>
+  <si>
+    <t>docosatetraenoic acid (C22:4)</t>
+  </si>
+  <si>
+    <t>Adenosine diphosphate</t>
+  </si>
+  <si>
+    <t>LysoPE(20:4)</t>
+  </si>
+  <si>
+    <t>Sulfolithocholylglycine</t>
+  </si>
+  <si>
+    <t>LysoPI(20:4)</t>
+  </si>
+  <si>
+    <t>Hydroxytrimethoxyhexosylhexoside</t>
+  </si>
+  <si>
+    <t>Heme (chloride)</t>
+  </si>
+  <si>
+    <t>Erythrose phosphate</t>
+  </si>
+  <si>
+    <t>Deoxyribose phosphate</t>
+  </si>
+  <si>
+    <t>eicosadienoic acid (C20:2)</t>
+  </si>
+  <si>
+    <t>Arachidic acid (C20:0)</t>
+  </si>
+  <si>
+    <t>Dihydroxybenzoic acid-borate complex</t>
+  </si>
+  <si>
+    <t>Uridine monophosphate</t>
+  </si>
+  <si>
+    <t>Fructose bisphosphate</t>
+  </si>
+  <si>
+    <t>Ribose phosphate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,6 +1000,18 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1373,10 +1358,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1438,9 +1426,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1478,7 +1466,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1584,7 +1572,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1726,7 +1714,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1737,7 +1725,7 @@
   <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,10 +1748,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="C2" s="2">
         <v>515.2916735</v>
@@ -1771,10 +1759,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2">
         <v>616.17674880000004</v>
@@ -1782,10 +1770,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2">
         <v>304.24020000000002</v>
@@ -1793,10 +1781,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>103.063329</v>
@@ -1804,10 +1792,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2">
         <v>108.02113</v>
@@ -1815,10 +1803,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C7" s="2">
         <v>110.03677999999999</v>
@@ -1826,10 +1814,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2">
         <v>112.01604500000001</v>
@@ -1837,10 +1825,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>116.01096</v>
@@ -1848,10 +1836,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2">
         <v>123.03202899999999</v>
@@ -1859,10 +1847,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2">
         <v>125.01466600000001</v>
@@ -1881,10 +1869,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2">
         <v>129.04259400000001</v>
@@ -1892,10 +1880,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2">
         <v>130.02661000000001</v>
@@ -1903,10 +1891,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2">
         <v>132.04226</v>
@@ -1914,10 +1902,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
         <v>133.037509</v>
@@ -1925,10 +1913,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>134.021525</v>
@@ -1947,10 +1935,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C19" s="2">
         <v>136.03717499999999</v>
@@ -1958,10 +1946,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2">
         <v>136.038511</v>
@@ -1969,10 +1957,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C21" s="2">
         <v>137.04767899999999</v>
@@ -1980,10 +1968,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2">
         <v>139.98746299999999</v>
@@ -1991,10 +1979,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2">
         <v>140.05857800000001</v>
@@ -2002,10 +1990,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
         <v>141.01909699999999</v>
@@ -2013,10 +2001,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C25" s="2">
         <v>146.069143</v>
@@ -2024,10 +2012,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
         <v>147.05315899999999</v>
@@ -2035,10 +2023,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C27" s="2">
         <v>151.06332900000001</v>
@@ -2046,10 +2034,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2">
         <v>152.03342599999999</v>
@@ -2057,10 +2045,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2">
         <v>154.02661000000001</v>
@@ -2068,10 +2056,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <v>155.06947700000001</v>
@@ -2079,10 +2067,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2">
         <v>156.0534921</v>
@@ -2090,10 +2078,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2">
         <v>158.04399100000001</v>
@@ -2101,10 +2089,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2">
         <v>160.03717499999999</v>
@@ -2112,10 +2100,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2">
         <v>161.06880899999999</v>
@@ -2123,10 +2111,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2">
         <v>162.05282500000001</v>
@@ -2134,10 +2122,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2">
         <v>167.02185900000001</v>
@@ -2145,10 +2133,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2">
         <v>167.98237800000001</v>
@@ -2156,10 +2144,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2">
         <v>168.02834100000001</v>
@@ -2167,10 +2155,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2">
         <v>169.037509</v>
@@ -2178,10 +2166,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C40" s="2">
         <v>169.99802800000001</v>
@@ -2189,10 +2177,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2">
         <v>169.99802800000001</v>
@@ -2200,10 +2188,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42" s="2">
         <v>172.013678</v>
@@ -2211,10 +2199,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2">
         <v>172.08479299999999</v>
@@ -2244,10 +2232,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2">
         <v>177.943231</v>
@@ -2255,10 +2243,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C47" s="2">
         <v>178.04774</v>
@@ -2266,10 +2254,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="C48" s="2">
         <v>180.04225869999999</v>
@@ -2277,10 +2265,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C49" s="2">
         <v>180.053493</v>
@@ -2288,10 +2276,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2">
         <v>180.06339</v>
@@ -2299,10 +2287,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2">
         <v>182.05790880000001</v>
@@ -2310,10 +2298,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2">
         <v>185.992943</v>
@@ -2321,10 +2309,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C53" s="2">
         <v>188.07970800000001</v>
@@ -2332,10 +2320,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C54" s="2">
         <v>192.027005</v>
@@ -2343,10 +2331,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2">
         <v>194.042655</v>
@@ -2354,10 +2342,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2">
         <v>194.042655</v>
@@ -2365,10 +2353,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2">
         <v>194.042655</v>
@@ -2376,10 +2364,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C58" s="2">
         <v>195.05315899999999</v>
@@ -2387,10 +2375,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C59" s="2">
         <v>196.05830499999999</v>
@@ -2398,10 +2386,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C60" s="2">
         <v>196.059641</v>
@@ -2409,10 +2397,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2">
         <v>197.06880899999999</v>
@@ -2420,10 +2408,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>272</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2">
         <v>200.00859299999999</v>
@@ -2431,10 +2419,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2">
         <v>214.02424300000001</v>
@@ -2442,7 +2430,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="C64" s="2">
         <v>215.055476</v>
@@ -2450,10 +2438,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C65" s="2">
         <v>216.04006999999999</v>
@@ -2461,10 +2449,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C66" s="2">
         <v>230.019158</v>
@@ -2472,10 +2460,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="C67" s="2">
         <v>242.0191538</v>
@@ -2494,10 +2482,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C69" s="2">
         <v>244.03480389999999</v>
@@ -2516,10 +2504,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="C71" s="2">
         <v>254.22460000000001</v>
@@ -2527,10 +2515,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="C72" s="2">
         <v>256.24020000000002</v>
@@ -2538,10 +2526,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2">
         <v>258.08518800000002</v>
@@ -2549,10 +2537,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2">
         <v>259.04570699999999</v>
@@ -2560,10 +2548,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C75" s="2">
         <v>260.02972299999999</v>
@@ -2571,10 +2559,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C76" s="2">
         <v>262.04537299999998</v>
@@ -2582,10 +2570,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C77" s="2">
         <v>265.95927599999999</v>
@@ -2593,10 +2581,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2">
         <v>268.08077100000003</v>
@@ -2604,7 +2592,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="C79" s="2">
         <v>273.09607599999998</v>
@@ -2612,10 +2600,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C80" s="2">
         <v>276.02463799999998</v>
@@ -2623,10 +2611,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C81" s="2">
         <v>278.22458019999999</v>
@@ -2634,10 +2622,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2">
         <v>280.24023</v>
@@ -2645,10 +2633,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="C83" s="2">
         <v>282.2559</v>
@@ -2656,10 +2644,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2">
         <v>284.07568600000002</v>
@@ -2667,10 +2655,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2">
         <v>284.27152999999998</v>
@@ -2678,10 +2666,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="C86" s="2">
         <v>290.04028319999998</v>
@@ -2689,10 +2677,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>284</v>
+        <v>200</v>
       </c>
       <c r="C87" s="2">
         <v>302.22449999999998</v>
@@ -2700,10 +2688,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C88" s="2">
         <v>306.2558803</v>
@@ -2711,10 +2699,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C89" s="2">
         <v>307.05694</v>
@@ -2722,10 +2710,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C90" s="2">
         <v>307.08380899999997</v>
@@ -2733,10 +2721,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2">
         <v>308.04095599999999</v>
@@ -2744,10 +2732,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="C92" s="2">
         <v>308.2715</v>
@@ -2755,10 +2743,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C93" s="2">
         <v>309.10598399999998</v>
@@ -2766,7 +2754,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C94" s="2">
         <v>312.2955</v>
@@ -2774,10 +2762,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C95" s="2">
         <v>312.30282999999997</v>
@@ -2785,7 +2773,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C96" s="2">
         <v>316.03906999999998</v>
@@ -2804,10 +2792,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C98" s="2">
         <v>324.03587099999999</v>
@@ -2815,10 +2803,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="C99" s="2">
         <v>325.10089579999999</v>
@@ -2826,10 +2814,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="C100" s="2">
         <v>328.24014</v>
@@ -2848,10 +2836,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2">
         <v>331.068173</v>
@@ -2859,10 +2847,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C103" s="2">
         <v>332.27153040000002</v>
@@ -2870,10 +2858,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2">
         <v>339.99605600000001</v>
@@ -2881,10 +2869,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C105" s="2">
         <v>342.11621500000001</v>
@@ -2892,10 +2880,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C106" s="2">
         <v>342.11621500000001</v>
@@ -2914,10 +2902,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C108" s="2">
         <v>348.04710399999999</v>
@@ -2925,10 +2913,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C109" s="2">
         <v>363.05800299999999</v>
@@ -2936,10 +2924,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C110" s="2">
         <v>384.12159100000002</v>
@@ -2947,10 +2935,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C111" s="2">
         <v>404.00220400000001</v>
@@ -2958,10 +2946,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2">
         <v>427.02942100000001</v>
@@ -2969,10 +2957,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C113" s="2">
         <v>443.02433600000001</v>
@@ -2980,10 +2968,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B114" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2">
         <v>466.31168200000002</v>
@@ -3002,10 +2990,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2">
         <v>499.296761</v>
@@ -3013,7 +3001,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="C117" s="2">
         <v>501.28429999999997</v>
@@ -3021,10 +3009,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C118" s="2">
         <v>506.99575399999998</v>
@@ -3032,7 +3020,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C119" s="2">
         <v>513.27567599999998</v>
@@ -3040,10 +3028,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2">
         <v>566.05502899999999</v>
@@ -3051,7 +3039,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C121" s="2">
         <v>580.03496999999993</v>
@@ -3059,7 +3047,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="C122" s="2">
         <v>582.31676999999991</v>
@@ -3067,7 +3055,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="C123" s="2">
         <v>600.32576999999992</v>
@@ -3075,7 +3063,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="C124" s="2">
         <v>602.00386999999989</v>
@@ -3083,7 +3071,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="C125" s="2">
         <v>607.08076999999992</v>
@@ -3091,10 +3079,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C126" s="2">
         <v>607.08157800000004</v>
@@ -3102,10 +3090,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C127" s="2">
         <v>612.15196800000001</v>
@@ -3113,7 +3101,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="C128" s="2">
         <v>612.15286999999989</v>
@@ -3121,7 +3109,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="C129" s="2">
         <v>617.98886999999991</v>
@@ -3129,7 +3117,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C130" s="2">
         <v>620.29576999999995</v>
@@ -3137,7 +3125,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C131" s="2">
         <v>620.29576999999995</v>
@@ -3145,7 +3133,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C132" s="2">
         <v>626.19256999999993</v>
@@ -3153,7 +3141,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C133" s="2">
         <v>626.19256999999993</v>
@@ -3161,7 +3149,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="C134" s="2">
         <v>651.14437599999997</v>
@@ -3169,7 +3157,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="C135" s="2">
         <v>658.27276999999992</v>
@@ -3177,10 +3165,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C136" s="2">
         <v>665.12477899999999</v>
@@ -3188,42 +3176,42 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="C137" s="2">
         <v>688.55007000000001</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>197</v>
+      <c r="A138" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C138" s="2">
         <v>715.51357599999994</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>216</v>
+      <c r="A139" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="C139" s="2">
         <v>724.50197600000001</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>215</v>
+      <c r="A140" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="C140" s="2">
         <v>739.51247599999999</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>214</v>
+      <c r="A141" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="C141" s="2">
         <v>743.54457600000001</v>
@@ -3231,29 +3219,29 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C142" s="2">
         <v>748.50267599999995</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>199</v>
+      <c r="A143" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C143" s="2">
         <v>763.51337599999999</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>201</v>
+      <c r="A144" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B144" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C144" s="2">
         <v>767.54387599999995</v>
@@ -3261,18 +3249,18 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="C145" s="2">
         <v>772.64326999999992</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>203</v>
+      <c r="A146" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="C146" s="2">
         <v>783.50087599999995</v>
@@ -3280,18 +3268,18 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="C147" s="2">
         <v>789.52736999999991</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>205</v>
+      <c r="A148" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C148" s="2">
         <v>791.54357600000003</v>
@@ -3299,7 +3287,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="C149" s="2">
         <v>795.57317</v>
@@ -3307,7 +3295,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C150" s="2">
         <v>798.65886999999998</v>
@@ -3315,7 +3303,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C151" s="2">
         <v>800.67147</v>
@@ -3323,7 +3311,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C152" s="2">
         <v>807.5015699999999</v>
@@ -3331,18 +3319,18 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="C153" s="2">
         <v>807.5015699999999</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>207</v>
+      <c r="A154" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B154" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="C154" s="2">
         <v>811.53357600000004</v>
@@ -3350,7 +3338,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C155" s="2">
         <v>817.5341699999999</v>
@@ -3358,7 +3346,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C156" s="2">
         <v>819.57227</v>
@@ -3366,7 +3354,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C157" s="2">
         <v>834.52236999999991</v>
@@ -3374,15 +3362,15 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C158" s="2">
         <v>835.53076999999996</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>212</v>
+      <c r="A159" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="C159" s="2">
         <v>835.53257599999995</v>
@@ -3390,7 +3378,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C160" s="2">
         <v>841.53576999999996</v>
@@ -3398,15 +3386,15 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C161" s="2">
         <v>845.56476999999995</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>211</v>
+      <c r="A162" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C162" s="2">
         <v>858.52167599999996</v>
@@ -3414,7 +3402,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C163" s="2">
         <v>858.52406999999994</v>
@@ -3422,7 +3410,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C164" s="2">
         <v>862.55186999999989</v>
@@ -3430,7 +3418,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C165" s="2">
         <v>866.46606999999995</v>
@@ -3438,7 +3426,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C166" s="2">
         <v>872.53686999999991</v>
@@ -3446,7 +3434,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C167" s="2">
         <v>882.57406999999989</v>
@@ -3454,32 +3442,33 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C168" s="2">
         <v>884.53726999999992</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>210</v>
+      <c r="A169" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C169" s="2">
         <v>884.53747599999997</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>209</v>
+      <c r="A170" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="C170" s="2">
         <v>886.556376</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C167">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C167">
     <sortCondition ref="C2:C167"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
